--- a/biology/Botanique/Pelagodoxa_henryana/Pelagodoxa_henryana.xlsx
+++ b/biology/Botanique/Pelagodoxa_henryana/Pelagodoxa_henryana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelagodoxa henryana est une espèce de la famille des Arecaceae (palmiers). Elle est endémique des îles Marquises en Polynésie française. C'est une des deux espèces actuellement acceptées dans le genre Pelagodoxa.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pelagodoxa a été décrit en 1917 par le botaniste italien Odoardo Beccari, et fait partie de la famille des Arecaceae, de la sous-famille des Arecoideae, de la tribu des Pelagodoxeae, qu'il partage avec le genre Sommieria [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pelagodoxa a été décrit en 1917 par le botaniste italien Odoardo Beccari, et fait partie de la famille des Arecaceae, de la sous-famille des Arecoideae, de la tribu des Pelagodoxeae, qu'il partage avec le genre Sommieria .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelagodoxa henryana est endémique des Marquises.
 </t>
@@ -573,7 +589,9 @@
           <t>Seconde espèce du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pelagodoxa mesocarpa Burret ( Vanuatu )</t>
         </is>
